--- a/RelatorioContasCorrente.xlsx
+++ b/RelatorioContasCorrente.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="11">
   <si>
     <t>Account ID</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Saldo Atual</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>Driver 1</t>
+  </si>
+  <si>
+    <t>Recebimento</t>
   </si>
 </sst>
 </file>
@@ -79,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,6 +118,673 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45258.902930613425</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.99999999575E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45258.90312322917</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.9999999925E9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45258.90314587963</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.99999998925E9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45258.903412037034</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.999999986E9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45258.90361790509</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99999998275E9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45258.90365451389</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9999999795E9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45258.9038834838</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.99999997625E9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45258.90406959491</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.999999973E9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45258.90411175926</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.99999996975E9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45258.90430550926</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.9999999665E9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45258.90450898148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.99999996325E9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45258.9045703125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.99999996E9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45258.904784722225</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99999995675E9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45258.904942256944</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.9999999535E9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>45258.90503716435</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.99999995025E9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45258.905307974535</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.999999947E9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45258.90550577546</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.99999994375E9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>45258.905584583335</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.9999999405E9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>45258.905827800925</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.99999993725E9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>45258.90598584491</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.999999934E9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45258.90609128472</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.99999993075E9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45258.906359664354</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.9999999275E9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45258.9065124537</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99999992425E9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45258.906617291665</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.999999921E9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>45258.90687255787</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99999991775E9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>45258.906991909724</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.9999999145E9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45258.90706895833</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.99999991125E9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>45258.90719204861</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.999999908E9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45258.90726795139</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.99999990475E9</v>
       </c>
     </row>
   </sheetData>
@@ -151,7 +830,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -180,6 +859,673 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45258.902930625</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45258.90312322917</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45258.90314587963</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45258.903412037034</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45258.90361790509</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45258.90365451389</v>
+      </c>
+      <c r="G7" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45258.9038834838</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45258.90406959491</v>
+      </c>
+      <c r="G9" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45258.90411175926</v>
+      </c>
+      <c r="G10" t="n">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45258.90430550926</v>
+      </c>
+      <c r="G11" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45258.90450898148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45258.9045703125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45258.904784722225</v>
+      </c>
+      <c r="G14" t="n">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45258.904942256944</v>
+      </c>
+      <c r="G15" t="n">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>45258.90503716435</v>
+      </c>
+      <c r="G16" t="n">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45258.905307974535</v>
+      </c>
+      <c r="G17" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45258.90550577546</v>
+      </c>
+      <c r="G18" t="n">
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>45258.905584583335</v>
+      </c>
+      <c r="G19" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>45258.905827800925</v>
+      </c>
+      <c r="G20" t="n">
+        <v>91.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>45258.90598584491</v>
+      </c>
+      <c r="G21" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45258.90609128472</v>
+      </c>
+      <c r="G22" t="n">
+        <v>98.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45258.906359664354</v>
+      </c>
+      <c r="G23" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45258.9065124537</v>
+      </c>
+      <c r="G24" t="n">
+        <v>104.75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45258.906617291665</v>
+      </c>
+      <c r="G25" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>45258.90687255787</v>
+      </c>
+      <c r="G26" t="n">
+        <v>111.25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>45258.906991909724</v>
+      </c>
+      <c r="G27" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45258.90706895833</v>
+      </c>
+      <c r="G28" t="n">
+        <v>117.75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>45258.90719204861</v>
+      </c>
+      <c r="G29" t="n">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45258.90726795139</v>
+      </c>
+      <c r="G30" t="n">
+        <v>124.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/RelatorioContasCorrente.xlsx
+++ b/RelatorioContasCorrente.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="11">
   <si>
     <t>Account ID</t>
   </si>
@@ -91,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -137,10 +137,654 @@
         <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>45258.953949131945</v>
+        <v>45259.45933543982</v>
       </c>
       <c r="G2" t="n">
         <v>1.99999999575E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45259.45953748842</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.9999999925E9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45259.45956525463</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.99999998925E9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45259.45989680556</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.999999986E9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45259.46017215278</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99999998275E9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45259.46022082176</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9999999795E9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45259.460522939815</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.99999997625E9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45259.46077172454</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.999999973E9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45259.460833703706</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.99999996975E9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45259.46110878472</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.9999999665E9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45259.461408159725</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.99999996325E9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45259.46150197917</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.99999996E9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45259.46180358796</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99999995675E9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45259.46201790509</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.9999999535E9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>45259.4621365162</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.99999995025E9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45259.46248008102</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.999999947E9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45259.462738622686</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.99999994375E9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>45259.46285015046</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.9999999405E9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>45259.46318461806</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.99999993725E9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>45259.46338689815</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.999999934E9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45259.46352344907</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.99999993075E9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45259.463932743056</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.9999999275E9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45259.46414174769</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99999992425E9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45259.46430099537</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.999999921E9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>45259.46461594907</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99999991775E9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>45259.46470842593</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.9999999145E9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45259.46478236111</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.99999991125E9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>45259.46490871528</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.999999908E9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45259.46497511574</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.99999990475E9</v>
       </c>
     </row>
   </sheetData>
@@ -186,7 +830,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -232,10 +876,654 @@
         <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>45258.953949131945</v>
+        <v>45259.45933546296</v>
       </c>
       <c r="G2" t="n">
         <v>33.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45259.45953748842</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45259.45956525463</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45259.45989680556</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45259.46017215278</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45259.46022082176</v>
+      </c>
+      <c r="G7" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45259.460522939815</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45259.46077172454</v>
+      </c>
+      <c r="G9" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45259.460833703706</v>
+      </c>
+      <c r="G10" t="n">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45259.46110878472</v>
+      </c>
+      <c r="G11" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45259.461408159725</v>
+      </c>
+      <c r="G12" t="n">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45259.46150197917</v>
+      </c>
+      <c r="G13" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45259.46180358796</v>
+      </c>
+      <c r="G14" t="n">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45259.46201790509</v>
+      </c>
+      <c r="G15" t="n">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>45259.4621365162</v>
+      </c>
+      <c r="G16" t="n">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45259.46248008102</v>
+      </c>
+      <c r="G17" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45259.462738622686</v>
+      </c>
+      <c r="G18" t="n">
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>45259.46285015046</v>
+      </c>
+      <c r="G19" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>45259.46318461806</v>
+      </c>
+      <c r="G20" t="n">
+        <v>91.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>45259.46338689815</v>
+      </c>
+      <c r="G21" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45259.46352344907</v>
+      </c>
+      <c r="G22" t="n">
+        <v>98.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45259.463932743056</v>
+      </c>
+      <c r="G23" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45259.46414174769</v>
+      </c>
+      <c r="G24" t="n">
+        <v>104.75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45259.46430099537</v>
+      </c>
+      <c r="G25" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>45259.46461594907</v>
+      </c>
+      <c r="G26" t="n">
+        <v>111.25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>45259.46470842593</v>
+      </c>
+      <c r="G27" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45259.46478236111</v>
+      </c>
+      <c r="G28" t="n">
+        <v>117.75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>45259.46490871528</v>
+      </c>
+      <c r="G29" t="n">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45259.46497511574</v>
+      </c>
+      <c r="G30" t="n">
+        <v>124.25</v>
       </c>
     </row>
   </sheetData>

--- a/RelatorioContasCorrente.xlsx
+++ b/RelatorioContasCorrente.xlsx
@@ -137,7 +137,7 @@
         <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>45259.45933543982</v>
+        <v>45259.49596148148</v>
       </c>
       <c r="G2" t="n">
         <v>1.99999999575E9</v>
@@ -160,7 +160,7 @@
         <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>45259.45953748842</v>
+        <v>45259.49619430555</v>
       </c>
       <c r="G3" t="n">
         <v>1.9999999925E9</v>
@@ -183,7 +183,7 @@
         <v>3.25</v>
       </c>
       <c r="F4" t="n">
-        <v>45259.45956525463</v>
+        <v>45259.49622400463</v>
       </c>
       <c r="G4" t="n">
         <v>1.99999998925E9</v>
@@ -206,7 +206,7 @@
         <v>3.25</v>
       </c>
       <c r="F5" t="n">
-        <v>45259.45989680556</v>
+        <v>45259.49657850694</v>
       </c>
       <c r="G5" t="n">
         <v>1.999999986E9</v>
@@ -229,7 +229,7 @@
         <v>3.25</v>
       </c>
       <c r="F6" t="n">
-        <v>45259.46017215278</v>
+        <v>45259.4968712037</v>
       </c>
       <c r="G6" t="n">
         <v>1.99999998275E9</v>
@@ -252,7 +252,7 @@
         <v>3.25</v>
       </c>
       <c r="F7" t="n">
-        <v>45259.46022082176</v>
+        <v>45259.496924375</v>
       </c>
       <c r="G7" t="n">
         <v>1.9999999795E9</v>
@@ -275,7 +275,7 @@
         <v>3.25</v>
       </c>
       <c r="F8" t="n">
-        <v>45259.460522939815</v>
+        <v>45259.497244756945</v>
       </c>
       <c r="G8" t="n">
         <v>1.99999997625E9</v>
@@ -298,7 +298,7 @@
         <v>3.25</v>
       </c>
       <c r="F9" t="n">
-        <v>45259.46077172454</v>
+        <v>45259.49751269676</v>
       </c>
       <c r="G9" t="n">
         <v>1.999999973E9</v>
@@ -321,7 +321,7 @@
         <v>3.25</v>
       </c>
       <c r="F10" t="n">
-        <v>45259.460833703706</v>
+        <v>45259.497580972224</v>
       </c>
       <c r="G10" t="n">
         <v>1.99999996975E9</v>
@@ -344,7 +344,7 @@
         <v>3.25</v>
       </c>
       <c r="F11" t="n">
-        <v>45259.46110878472</v>
+        <v>45259.4978718287</v>
       </c>
       <c r="G11" t="n">
         <v>1.9999999665E9</v>
@@ -367,7 +367,7 @@
         <v>3.25</v>
       </c>
       <c r="F12" t="n">
-        <v>45259.461408159725</v>
+        <v>45259.49818141204</v>
       </c>
       <c r="G12" t="n">
         <v>1.99999996325E9</v>
@@ -390,7 +390,7 @@
         <v>3.25</v>
       </c>
       <c r="F13" t="n">
-        <v>45259.46150197917</v>
+        <v>45259.498268773146</v>
       </c>
       <c r="G13" t="n">
         <v>1.99999996E9</v>
@@ -413,7 +413,7 @@
         <v>3.25</v>
       </c>
       <c r="F14" t="n">
-        <v>45259.46180358796</v>
+        <v>45259.49860806713</v>
       </c>
       <c r="G14" t="n">
         <v>1.99999995675E9</v>
@@ -436,7 +436,7 @@
         <v>3.25</v>
       </c>
       <c r="F15" t="n">
-        <v>45259.46201790509</v>
+        <v>45259.49883331019</v>
       </c>
       <c r="G15" t="n">
         <v>1.9999999535E9</v>
@@ -459,7 +459,7 @@
         <v>3.25</v>
       </c>
       <c r="F16" t="n">
-        <v>45259.4621365162</v>
+        <v>45259.49896023148</v>
       </c>
       <c r="G16" t="n">
         <v>1.99999995025E9</v>
@@ -482,7 +482,7 @@
         <v>3.25</v>
       </c>
       <c r="F17" t="n">
-        <v>45259.46248008102</v>
+        <v>45259.49932715278</v>
       </c>
       <c r="G17" t="n">
         <v>1.999999947E9</v>
@@ -505,7 +505,7 @@
         <v>3.25</v>
       </c>
       <c r="F18" t="n">
-        <v>45259.462738622686</v>
+        <v>45259.49959344907</v>
       </c>
       <c r="G18" t="n">
         <v>1.99999994375E9</v>
@@ -528,7 +528,7 @@
         <v>3.25</v>
       </c>
       <c r="F19" t="n">
-        <v>45259.46285015046</v>
+        <v>45259.499716238424</v>
       </c>
       <c r="G19" t="n">
         <v>1.9999999405E9</v>
@@ -551,7 +551,7 @@
         <v>3.25</v>
       </c>
       <c r="F20" t="n">
-        <v>45259.46318461806</v>
+        <v>45259.500064872685</v>
       </c>
       <c r="G20" t="n">
         <v>1.99999993725E9</v>
@@ -574,7 +574,7 @@
         <v>3.25</v>
       </c>
       <c r="F21" t="n">
-        <v>45259.46338689815</v>
+        <v>45259.500276631945</v>
       </c>
       <c r="G21" t="n">
         <v>1.999999934E9</v>
@@ -597,7 +597,7 @@
         <v>3.25</v>
       </c>
       <c r="F22" t="n">
-        <v>45259.46352344907</v>
+        <v>45259.50042986111</v>
       </c>
       <c r="G22" t="n">
         <v>1.99999993075E9</v>
@@ -620,7 +620,7 @@
         <v>3.25</v>
       </c>
       <c r="F23" t="n">
-        <v>45259.463932743056</v>
+        <v>45259.50081430555</v>
       </c>
       <c r="G23" t="n">
         <v>1.9999999275E9</v>
@@ -643,7 +643,7 @@
         <v>3.25</v>
       </c>
       <c r="F24" t="n">
-        <v>45259.46414174769</v>
+        <v>45259.50101581019</v>
       </c>
       <c r="G24" t="n">
         <v>1.99999992425E9</v>
@@ -666,7 +666,7 @@
         <v>3.25</v>
       </c>
       <c r="F25" t="n">
-        <v>45259.46430099537</v>
+        <v>45259.50117337963</v>
       </c>
       <c r="G25" t="n">
         <v>1.999999921E9</v>
@@ -689,7 +689,7 @@
         <v>3.25</v>
       </c>
       <c r="F26" t="n">
-        <v>45259.46461594907</v>
+        <v>45259.5014859838</v>
       </c>
       <c r="G26" t="n">
         <v>1.99999991775E9</v>
@@ -712,7 +712,7 @@
         <v>3.25</v>
       </c>
       <c r="F27" t="n">
-        <v>45259.46470842593</v>
+        <v>45259.50158930555</v>
       </c>
       <c r="G27" t="n">
         <v>1.9999999145E9</v>
@@ -735,7 +735,7 @@
         <v>3.25</v>
       </c>
       <c r="F28" t="n">
-        <v>45259.46478236111</v>
+        <v>45259.501689398145</v>
       </c>
       <c r="G28" t="n">
         <v>1.99999991125E9</v>
@@ -758,7 +758,7 @@
         <v>3.25</v>
       </c>
       <c r="F29" t="n">
-        <v>45259.46490871528</v>
+        <v>45259.50185825231</v>
       </c>
       <c r="G29" t="n">
         <v>1.999999908E9</v>
@@ -781,7 +781,7 @@
         <v>3.25</v>
       </c>
       <c r="F30" t="n">
-        <v>45259.46497511574</v>
+        <v>45259.50193409722</v>
       </c>
       <c r="G30" t="n">
         <v>1.99999990475E9</v>
@@ -876,7 +876,7 @@
         <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>45259.45933546296</v>
+        <v>45259.49596148148</v>
       </c>
       <c r="G2" t="n">
         <v>33.25</v>
@@ -899,7 +899,7 @@
         <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>45259.45953748842</v>
+        <v>45259.49619430555</v>
       </c>
       <c r="G3" t="n">
         <v>36.5</v>
@@ -922,7 +922,7 @@
         <v>3.25</v>
       </c>
       <c r="F4" t="n">
-        <v>45259.45956525463</v>
+        <v>45259.49622400463</v>
       </c>
       <c r="G4" t="n">
         <v>39.75</v>
@@ -945,7 +945,7 @@
         <v>3.25</v>
       </c>
       <c r="F5" t="n">
-        <v>45259.45989680556</v>
+        <v>45259.49657850694</v>
       </c>
       <c r="G5" t="n">
         <v>43.0</v>
@@ -968,7 +968,7 @@
         <v>3.25</v>
       </c>
       <c r="F6" t="n">
-        <v>45259.46017215278</v>
+        <v>45259.4968712037</v>
       </c>
       <c r="G6" t="n">
         <v>46.25</v>
@@ -991,7 +991,7 @@
         <v>3.25</v>
       </c>
       <c r="F7" t="n">
-        <v>45259.46022082176</v>
+        <v>45259.496924375</v>
       </c>
       <c r="G7" t="n">
         <v>49.5</v>
@@ -1014,7 +1014,7 @@
         <v>3.25</v>
       </c>
       <c r="F8" t="n">
-        <v>45259.460522939815</v>
+        <v>45259.497244756945</v>
       </c>
       <c r="G8" t="n">
         <v>52.75</v>
@@ -1037,7 +1037,7 @@
         <v>3.25</v>
       </c>
       <c r="F9" t="n">
-        <v>45259.46077172454</v>
+        <v>45259.49751269676</v>
       </c>
       <c r="G9" t="n">
         <v>56.0</v>
@@ -1060,7 +1060,7 @@
         <v>3.25</v>
       </c>
       <c r="F10" t="n">
-        <v>45259.460833703706</v>
+        <v>45259.497580972224</v>
       </c>
       <c r="G10" t="n">
         <v>59.25</v>
@@ -1083,7 +1083,7 @@
         <v>3.25</v>
       </c>
       <c r="F11" t="n">
-        <v>45259.46110878472</v>
+        <v>45259.4978718287</v>
       </c>
       <c r="G11" t="n">
         <v>62.5</v>
@@ -1106,7 +1106,7 @@
         <v>3.25</v>
       </c>
       <c r="F12" t="n">
-        <v>45259.461408159725</v>
+        <v>45259.49818141204</v>
       </c>
       <c r="G12" t="n">
         <v>65.75</v>
@@ -1129,7 +1129,7 @@
         <v>3.25</v>
       </c>
       <c r="F13" t="n">
-        <v>45259.46150197917</v>
+        <v>45259.498268773146</v>
       </c>
       <c r="G13" t="n">
         <v>69.0</v>
@@ -1152,7 +1152,7 @@
         <v>3.25</v>
       </c>
       <c r="F14" t="n">
-        <v>45259.46180358796</v>
+        <v>45259.49860806713</v>
       </c>
       <c r="G14" t="n">
         <v>72.25</v>
@@ -1175,7 +1175,7 @@
         <v>3.25</v>
       </c>
       <c r="F15" t="n">
-        <v>45259.46201790509</v>
+        <v>45259.49883331019</v>
       </c>
       <c r="G15" t="n">
         <v>75.5</v>
@@ -1198,7 +1198,7 @@
         <v>3.25</v>
       </c>
       <c r="F16" t="n">
-        <v>45259.4621365162</v>
+        <v>45259.49896023148</v>
       </c>
       <c r="G16" t="n">
         <v>78.75</v>
@@ -1221,7 +1221,7 @@
         <v>3.25</v>
       </c>
       <c r="F17" t="n">
-        <v>45259.46248008102</v>
+        <v>45259.49932715278</v>
       </c>
       <c r="G17" t="n">
         <v>82.0</v>
@@ -1244,7 +1244,7 @@
         <v>3.25</v>
       </c>
       <c r="F18" t="n">
-        <v>45259.462738622686</v>
+        <v>45259.49959344907</v>
       </c>
       <c r="G18" t="n">
         <v>85.25</v>
@@ -1267,7 +1267,7 @@
         <v>3.25</v>
       </c>
       <c r="F19" t="n">
-        <v>45259.46285015046</v>
+        <v>45259.499716238424</v>
       </c>
       <c r="G19" t="n">
         <v>88.5</v>
@@ -1290,7 +1290,7 @@
         <v>3.25</v>
       </c>
       <c r="F20" t="n">
-        <v>45259.46318461806</v>
+        <v>45259.500064872685</v>
       </c>
       <c r="G20" t="n">
         <v>91.75</v>
@@ -1313,7 +1313,7 @@
         <v>3.25</v>
       </c>
       <c r="F21" t="n">
-        <v>45259.46338689815</v>
+        <v>45259.500276631945</v>
       </c>
       <c r="G21" t="n">
         <v>95.0</v>
@@ -1336,7 +1336,7 @@
         <v>3.25</v>
       </c>
       <c r="F22" t="n">
-        <v>45259.46352344907</v>
+        <v>45259.50042986111</v>
       </c>
       <c r="G22" t="n">
         <v>98.25</v>
@@ -1359,7 +1359,7 @@
         <v>3.25</v>
       </c>
       <c r="F23" t="n">
-        <v>45259.463932743056</v>
+        <v>45259.50081430555</v>
       </c>
       <c r="G23" t="n">
         <v>101.5</v>
@@ -1382,7 +1382,7 @@
         <v>3.25</v>
       </c>
       <c r="F24" t="n">
-        <v>45259.46414174769</v>
+        <v>45259.50101581019</v>
       </c>
       <c r="G24" t="n">
         <v>104.75</v>
@@ -1405,7 +1405,7 @@
         <v>3.25</v>
       </c>
       <c r="F25" t="n">
-        <v>45259.46430099537</v>
+        <v>45259.50117337963</v>
       </c>
       <c r="G25" t="n">
         <v>108.0</v>
@@ -1428,7 +1428,7 @@
         <v>3.25</v>
       </c>
       <c r="F26" t="n">
-        <v>45259.46461594907</v>
+        <v>45259.5014859838</v>
       </c>
       <c r="G26" t="n">
         <v>111.25</v>
@@ -1451,7 +1451,7 @@
         <v>3.25</v>
       </c>
       <c r="F27" t="n">
-        <v>45259.46470842593</v>
+        <v>45259.50158930555</v>
       </c>
       <c r="G27" t="n">
         <v>114.5</v>
@@ -1474,7 +1474,7 @@
         <v>3.25</v>
       </c>
       <c r="F28" t="n">
-        <v>45259.46478236111</v>
+        <v>45259.501689398145</v>
       </c>
       <c r="G28" t="n">
         <v>117.75</v>
@@ -1497,7 +1497,7 @@
         <v>3.25</v>
       </c>
       <c r="F29" t="n">
-        <v>45259.46490871528</v>
+        <v>45259.50185825231</v>
       </c>
       <c r="G29" t="n">
         <v>121.0</v>
@@ -1520,7 +1520,7 @@
         <v>3.25</v>
       </c>
       <c r="F30" t="n">
-        <v>45259.46497511574</v>
+        <v>45259.50193409722</v>
       </c>
       <c r="G30" t="n">
         <v>124.25</v>

--- a/RelatorioContasCorrente.xlsx
+++ b/RelatorioContasCorrente.xlsx
@@ -137,7 +137,7 @@
         <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>45259.72062467592</v>
+        <v>1990118.4570405092</v>
       </c>
       <c r="G2" t="n">
         <v>1.99999999575E9</v>
@@ -232,7 +232,7 @@
         <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>45259.72062467592</v>
+        <v>1990118.4572418982</v>
       </c>
       <c r="G2" t="n">
         <v>33.25</v>
